--- a/biology/Botanique/Eduard_Adolf_Strasburger/Eduard_Adolf_Strasburger.xlsx
+++ b/biology/Botanique/Eduard_Adolf_Strasburger/Eduard_Adolf_Strasburger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Adolf Strasburger est un botaniste allemand, né le 1er février 1844 à Varsovie et mort le 18 mai 1912 à Bonn.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à Paris et à Bonn, il obtient son doctorat en Biologie à l’université de Iéna en 1866. Il commence à enseigner à l’université de Varsovie avant de prendre un poste de professeur de botanique à l’université de Iéna de 1869 à 1880, où il réaménage en tant que directeur le jardin botanique d'Iéna; puis, de 1880 jusqu’à sa mort, il est professeur de botanique à l’université de Bonn. Il voyage notamment avec Ernst Haeckel (1834-1919)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à Paris et à Bonn, il obtient son doctorat en Biologie à l’université de Iéna en 1866. Il commence à enseigner à l’université de Varsovie avant de prendre un poste de professeur de botanique à l’université de Iéna de 1869 à 1880, où il réaménage en tant que directeur le jardin botanique d'Iéna; puis, de 1880 jusqu’à sa mort, il est professeur de botanique à l’université de Bonn. Il voyage notamment avec Ernst Haeckel (1834-1919).
 Il se consacre à l’étude de l’embryologie végétale et fait des observations nouvelles sur l’embryologie des gymnospermes. Son œuvre sur la cytologie végétale est également pionnière.
 Strasburger devient membre étranger de la Royal Society le 26 novembre 1891, reçoit la médaille linnéenne en 1905 et la médaille d’argent Darwin-Wallace en 1908. Il est notamment l’auteur de :
 Über Zellbildung und Zellteilung (1875).
